--- a/01_Input/00_CO Validation/Georgia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Georgia - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="438" documentId="11_96DCA9944B7C8DF83CA06904C0FC12E3A92B5F9A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C88193-0B09-42C8-A320-5FE085E81CB6}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="11_96DCA9944B7C8DF83CA06904C0FC12E3A92B5F9A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{792816A1-B4EF-41D6-8CCA-4BBF7C26F364}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>Project ID</t>
   </si>
@@ -131,10 +131,7 @@
     <t>Number of on-grid solar power systems installed in the MPL</t>
   </si>
   <si>
-    <t>Covered by other indicators</t>
-  </si>
-  <si>
-    <t>70 on-grid solar power systems installed in the MPL</t>
+    <t>70 on-grid solar power systems installed in the MPL (2.8kw each)</t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -198,6 +195,9 @@
     <t>Increase Number of Households in targeted rural areas receiving direct incentives to improve energy efficiency and other climate-related benefits with support from the project</t>
   </si>
   <si>
+    <t>400 HH</t>
+  </si>
+  <si>
     <t>543 households received direct incentives to improve energy efficiency and other climate-related benefits in targeted rural areas. In Particular, Green Matching Grant Scheme was developed in cooperation with the Rural Development Agency, and Grants schemes were designed with the involvement of local NGOs of target municipalities. As a result, 543 rural households installed various EE/RE technologies such as Solar Water Heaters, Solar Panels, and thermal insulation of the houses.</t>
   </si>
   <si>
@@ -210,16 +210,25 @@
     <t>https://www.undp.org/georgia/projects/sustainable-forest-management</t>
   </si>
   <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public awareness campaign on the importance of SFM, BSY and energy efficiency is conducted in Mtskheta municipality ;                                  # of socially vulnerable households equipped with energy-efficient equipment/technologies and trained in the usage                  </t>
+  </si>
+  <si>
+    <t>50 HH</t>
+  </si>
+  <si>
+    <t>Yes                             At least 50 socially vulnerable households of Mtskheta Municipality are equiped with EE stoves and trained in the usage</t>
+  </si>
+  <si>
+    <t>Covered by other indicators</t>
+  </si>
+  <si>
+    <t>70 on-grid solar power systems installed in the MPL</t>
+  </si>
+  <si>
     <t>926 659</t>
-  </si>
-  <si>
-    <t>Clean Cooking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public awareness campaign on the importance of SFM, BSY and energy efficiency is conducted in Mtskheta municipality ;                                  # of socially vulnerable households equipped with energy-efficient equipment/technologies and trained in the usage                  </t>
-  </si>
-  <si>
-    <t>Yes                             At least 50 socially vulnerable households of Mtskheta Municipality are equiped with EE stoves and trained in the usage</t>
   </si>
   <si>
     <t>Number of solar water heaters installed in the Machakhela Protected Landscape (MPL)</t>
@@ -451,7 +460,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +521,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -743,7 +758,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -868,132 +883,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1042,6 +931,141 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1350,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C13D11-4323-4385-A404-DE86791C8393}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N9" sqref="M9:N12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1371,58 +1395,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="45.75">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="90" t="s">
+      <c r="N1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="90" t="s">
+      <c r="O1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="90" t="s">
+      <c r="P1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="90" t="s">
+      <c r="Q1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="48" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1457,7 +1481,7 @@
       <c r="R2" s="32"/>
     </row>
     <row r="3" spans="1:18" ht="100.5" customHeight="1">
-      <c r="A3" s="91">
+      <c r="A3" s="49">
         <v>1000347</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -1497,22 +1521,22 @@
       <c r="R3" s="32"/>
     </row>
     <row r="4" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="25" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>28</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>29</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
@@ -1527,15 +1551,15 @@
       <c r="R4" s="32"/>
     </row>
     <row r="5" spans="1:18" ht="78.75" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -1544,7 +1568,7 @@
         <v>300</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
@@ -1559,22 +1583,22 @@
       <c r="R5" s="32"/>
     </row>
     <row r="6" spans="1:18" ht="84.75" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
@@ -1589,15 +1613,15 @@
       <c r="R6" s="32"/>
     </row>
     <row r="7" spans="1:18" ht="90.75" customHeight="1">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>37</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -1606,7 +1630,7 @@
         <v>1500</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
@@ -1621,31 +1645,31 @@
       <c r="R7" s="32"/>
     </row>
     <row r="8" spans="1:18" ht="102" customHeight="1">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="C8" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="D8" s="61">
+        <v>2000000</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="103">
-        <v>2000000</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="101" t="s">
+      <c r="G8" s="59">
+        <v>0</v>
+      </c>
+      <c r="H8" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="101">
-        <v>0</v>
-      </c>
-      <c r="H8" s="101">
-        <v>400</v>
-      </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="59" t="s">
         <v>43</v>
       </c>
       <c r="J8" s="41"/>
@@ -1670,20 +1694,20 @@
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="20">
+        <v>926659</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="36" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="23">
         <v>0</v>
       </c>
-      <c r="H9" s="23">
-        <v>50</v>
+      <c r="H9" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>50</v>
@@ -1807,16 +1831,16 @@
       </c>
     </row>
     <row r="3" spans="1:46" ht="66" customHeight="1">
-      <c r="A3" s="46">
+      <c r="A3" s="77">
         <v>1000347</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="80">
         <v>450000</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -1836,15 +1860,15 @@
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="68" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="38.25" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
@@ -1853,25 +1877,25 @@
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
-      <c r="L4" s="57"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:46" ht="78.75" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -1880,44 +1904,44 @@
         <v>300</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
-      <c r="L5" s="57"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:46" ht="84.75" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
-      <c r="L6" s="57"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:46" ht="90.75" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>37</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -1926,101 +1950,101 @@
         <v>1500</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
-      <c r="L7" s="58"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="C8" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="D8" s="83">
+        <v>2000000</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="53">
-        <v>2000000</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="51">
+      <c r="G8" s="67">
         <v>0</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="67">
         <v>400</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62" t="s">
+      <c r="J8" s="71"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
     </row>
     <row r="12" spans="1:46" s="39" customFormat="1" ht="169.5" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -2067,13 +2091,13 @@
         <v>46</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" s="36" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>49</v>
       </c>
       <c r="G13" s="23">
         <v>0</v>
@@ -2092,6 +2116,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="L3:L7"/>
     <mergeCell ref="F8:F12"/>
@@ -2101,14 +2133,6 @@
     <mergeCell ref="J8:J12"/>
     <mergeCell ref="K8:K12"/>
     <mergeCell ref="L8:L12"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{F083568D-3160-451B-BC98-5D06DE95C647}"/>
@@ -2205,23 +2229,23 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="66" customHeight="1">
-      <c r="A3" s="65">
+      <c r="A3" s="92">
         <v>1000347</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="99">
         <v>450000</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="101" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G3" s="9">
         <v>10</v>
@@ -2230,15 +2254,15 @@
         <v>200</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="72.75">
-      <c r="A4" s="66"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="75"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
@@ -2249,15 +2273,15 @@
         <v>1050</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="75"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
@@ -2268,17 +2292,17 @@
         <v>70</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="78.75" customHeight="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="75"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -2287,36 +2311,36 @@
         <v>300</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="84.75" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="75"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="8" spans="1:10" ht="90.75" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="76"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
@@ -2325,85 +2349,85 @@
         <v>1500</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="77" t="s">
+      <c r="A9" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="D9" s="90">
+        <v>2000000</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="82">
-        <v>2000000</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="77">
+      <c r="G9" s="85">
         <v>0</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="85">
         <v>400</v>
       </c>
-      <c r="I9" s="77" t="s">
-        <v>58</v>
+      <c r="I9" s="85" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="79"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="79"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="79"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:10" ht="169.5" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
     </row>
     <row r="14" spans="1:10" ht="207" customHeight="1">
       <c r="A14" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>45</v>
@@ -2412,16 +2436,16 @@
         <v>46</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H14" s="23">
         <v>50</v>
@@ -2432,6 +2456,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="A9:A13"/>
@@ -2441,11 +2470,6 @@
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="E9:E13"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="E3:E8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2484,160 +2508,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="84" t="s">
-        <v>63</v>
+      <c r="A2" s="104" t="s">
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="84"/>
+      <c r="A3" s="104"/>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="84"/>
+      <c r="A4" s="104"/>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="85" t="s">
-        <v>68</v>
+      <c r="A5" s="105" t="s">
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="85"/>
+      <c r="A6" s="105"/>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="85"/>
+      <c r="A7" s="105"/>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="85"/>
+      <c r="A8" s="105"/>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="105"/>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="86" t="s">
-        <v>77</v>
+      <c r="A10" s="106" t="s">
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="86"/>
+      <c r="A11" s="106"/>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="87" t="s">
-        <v>82</v>
+      <c r="A12" s="107" t="s">
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="87"/>
+      <c r="A13" s="107"/>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="87"/>
+      <c r="A14" s="107"/>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2663,15 +2687,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2920,14 +2935,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A9E7B7-546E-484B-85A4-3821C95354BD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D4F767-6D43-4390-BAB1-24FFF1EDB554}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25136E5F-9A57-4273-B220-395FD7044D94}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25136E5F-9A57-4273-B220-395FD7044D94}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D4F767-6D43-4390-BAB1-24FFF1EDB554}"/>
 </file>
--- a/01_Input/00_CO Validation/Georgia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Georgia - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="446" documentId="11_96DCA9944B7C8DF83CA06904C0FC12E3A92B5F9A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{792816A1-B4EF-41D6-8CCA-4BBF7C26F364}"/>
+  <xr:revisionPtr revIDLastSave="512" documentId="11_96DCA9944B7C8DF83CA06904C0FC12E3A92B5F9A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0C8C67E-8217-4B6B-B8C7-1F8D6ABA0ED0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,10 +69,10 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
   <si>
     <t>SEH Taxonomy</t>
@@ -90,13 +90,42 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>JP Food/Energy Resilience</t>
   </si>
   <si>
     <t>http://open.undp.org/projects/00145011</t>
   </si>
   <si>
+    <t xml:space="preserve">Adapted analytical tools 
+Dashboard for food and energy security analysis (with focus on women and vulnerable population) and forecasting  
+</t>
+  </si>
+  <si>
     <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>National Strategy</t>
+  </si>
+  <si>
+    <t>Digital &amp; Data</t>
+  </si>
+  <si>
+    <t>National</t>
   </si>
   <si>
     <t>Renewable Energy for Sustainable Forest Management and Community Resilience in Machakhela Protected Areas</t>
@@ -154,16 +183,19 @@
     <t>at least 300 individuals benefiting from the on-grid_x000D_solar systems with reduced electricity bill</t>
   </si>
   <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
     <t>Feasibility of other alternatives (e.g. Biomass_x000D_production) assessed in the valley and/or adjacent_x000D_areas including technical, environmental, financial_x000D_management and market feasibilities</t>
   </si>
   <si>
     <t>Feasibility of other alternatives (e.g. Biomass_x000D_production) assessed in the valley and/or adjacent areas</t>
   </si>
   <si>
-    <t>Capacity Training</t>
+    <t>Financing Model</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Capacity Building Training</t>
   </si>
   <si>
     <r>
@@ -183,49 +215,61 @@
     <t>At least 1500, including beneficiaries of Activities 1 and 2</t>
   </si>
   <si>
+    <t>101419</t>
+  </si>
+  <si>
+    <t>Improving Rural Development in Georgia (ENPARD 3)</t>
+  </si>
+  <si>
+    <t>https://www.undp.org/georgia/projects/enpard-3</t>
+  </si>
+  <si>
+    <t>Increase Number of Households in targeted rural areas receiving direct incentives to improve energy efficiency and other climate-related benefits with support from the project</t>
+  </si>
+  <si>
+    <t>400 HH</t>
+  </si>
+  <si>
+    <t>543 households received direct incentives to improve energy efficiency and other climate-related benefits in targeted rural areas. In Particular, Green Matching Grant Scheme was developed in cooperation with the Rural Development Agency, and Grants schemes were designed with the involvement of local NGOs of target municipalities. As a result, 543 rural households installed various EE/RE technologies such as Solar Water Heaters, Solar Panels, and thermal insulation of the houses.</t>
+  </si>
+  <si>
+    <t>141162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support to sustainable and climate-friendly forest management practices in Georgia  </t>
+  </si>
+  <si>
+    <t>https://www.undp.org/georgia/projects/sustainable-forest-management</t>
+  </si>
+  <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public awareness campaign on the importance of SFM, BSY and energy efficiency is conducted in Mtskheta municipality ;                                  # of socially vulnerable households equipped with energy-efficient equipment/technologies and trained in the usage                  </t>
+  </si>
+  <si>
+    <t>50 HH</t>
+  </si>
+  <si>
+    <t>Yes                             At least 50 socially vulnerable households of Mtskheta Municipality are equiped with EE stoves and trained in the usage</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Covered by other indicators</t>
+  </si>
+  <si>
+    <t>70 on-grid solar power systems installed in the MPL</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
     <t>00101419</t>
   </si>
   <si>
-    <t>Improving Rural Development in Georgia (ENPARD 3)</t>
-  </si>
-  <si>
-    <t>https://www.undp.org/georgia/projects/enpard-3</t>
-  </si>
-  <si>
-    <t>Increase Number of Households in targeted rural areas receiving direct incentives to improve energy efficiency and other climate-related benefits with support from the project</t>
-  </si>
-  <si>
-    <t>400 HH</t>
-  </si>
-  <si>
-    <t>543 households received direct incentives to improve energy efficiency and other climate-related benefits in targeted rural areas. In Particular, Green Matching Grant Scheme was developed in cooperation with the Rural Development Agency, and Grants schemes were designed with the involvement of local NGOs of target municipalities. As a result, 543 rural households installed various EE/RE technologies such as Solar Water Heaters, Solar Panels, and thermal insulation of the houses.</t>
-  </si>
-  <si>
     <t>00141162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support to sustainable and climate-friendly forest management practices in Georgia  </t>
-  </si>
-  <si>
-    <t>https://www.undp.org/georgia/projects/sustainable-forest-management</t>
-  </si>
-  <si>
-    <t>Clean Cooking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public awareness campaign on the importance of SFM, BSY and energy efficiency is conducted in Mtskheta municipality ;                                  # of socially vulnerable households equipped with energy-efficient equipment/technologies and trained in the usage                  </t>
-  </si>
-  <si>
-    <t>50 HH</t>
-  </si>
-  <si>
-    <t>Yes                             At least 50 socially vulnerable households of Mtskheta Municipality are equiped with EE stoves and trained in the usage</t>
-  </si>
-  <si>
-    <t>Covered by other indicators</t>
-  </si>
-  <si>
-    <t>70 on-grid solar power systems installed in the MPL</t>
   </si>
   <si>
     <t>926 659</t>
@@ -289,55 +333,70 @@
     <t>Education Services; Other Energy services</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
-  </si>
-  <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -352,10 +411,7 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -364,16 +420,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -386,12 +445,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,8 +524,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,42 +548,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE497"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -750,63 +792,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -818,254 +878,285 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1372,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C13D11-4323-4385-A404-DE86791C8393}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1384,347 +1475,454 @@
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="15" width="10.140625" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45.75">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:21" ht="45.75">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="71" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="24" customHeight="1">
-      <c r="A2" s="29">
+      <c r="S1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="106.5">
+      <c r="A2" s="45">
         <v>145011</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="45">
+        <v>99070</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="29">
-        <v>99070</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-    </row>
-    <row r="3" spans="1:18" ht="100.5" customHeight="1">
-      <c r="A3" s="49">
+      <c r="F2" s="112"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="35"/>
+      <c r="T2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="35"/>
+    </row>
+    <row r="3" spans="1:21" ht="100.5" customHeight="1">
+      <c r="A3" s="41">
         <v>1000347</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="45">
+      <c r="B3" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="48">
         <v>450000</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="52">
+        <v>50</v>
+      </c>
+      <c r="H3" s="52">
+        <v>1050</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10">
+      <c r="M3" s="17"/>
+      <c r="N3" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="35"/>
+    </row>
+    <row r="4" spans="1:21" ht="45.75">
+      <c r="A4" s="42"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="35"/>
+    </row>
+    <row r="5" spans="1:21" ht="78.75" customHeight="1">
+      <c r="A5" s="42"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="52">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52">
+        <v>300</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="35"/>
+    </row>
+    <row r="6" spans="1:21" ht="84.75" customHeight="1">
+      <c r="A6" s="42"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="52">
+        <v>0</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="35"/>
+      <c r="T6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="35">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="90.75" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="52">
+        <v>0</v>
+      </c>
+      <c r="H7" s="52">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="35"/>
+    </row>
+    <row r="8" spans="1:21" ht="229.5">
+      <c r="A8" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="10">
-        <v>1050</v>
-      </c>
-      <c r="I3" s="34" t="s">
+      <c r="D8" s="62">
+        <v>2000000</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-    </row>
-    <row r="4" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-    </row>
-    <row r="5" spans="1:18" ht="78.75" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="35"/>
+    </row>
+    <row r="9" spans="1:21" ht="207" customHeight="1">
+      <c r="A9" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="18">
+        <v>926659</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="21">
         <v>0</v>
       </c>
-      <c r="H5" s="10">
-        <v>300</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-    </row>
-    <row r="6" spans="1:18" ht="84.75" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-    </row>
-    <row r="7" spans="1:18" ht="90.75" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1500</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-    </row>
-    <row r="8" spans="1:18" ht="102" customHeight="1">
-      <c r="A8" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="61">
-        <v>2000000</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="59">
-        <v>0</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-    </row>
-    <row r="9" spans="1:18" ht="207" customHeight="1">
-      <c r="A9" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="20">
-        <v>926659</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
+      <c r="H9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="35"/>
     </row>
   </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q9" xr:uid="{326C6830-0C1F-4A20-A0F9-FBF63F68CF39}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N9" xr:uid="{14D1E0C8-1CB1-4C92-A74D-150D20266EC4}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O9" xr:uid="{3F7F5E4B-9528-49C6-A8BF-B2B6CA6EAAEE}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L9" xr:uid="{2F4A0FA1-30C8-4332-8C84-3AC02965C3B0}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M9" xr:uid="{BDA1E004-E19D-4EBD-BE2D-F4F19FF4558F}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T9" xr:uid="{250F7C99-073A-47DB-B6FF-2AB6C5E91593}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P9" xr:uid="{E64E2BAC-DBB8-44DA-AF08-1F4034C98373}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S9" xr:uid="{9CE7C562-133E-4CEB-B968-46E03CCA3E1E}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R9" xr:uid="{CFE50563-3C34-41C8-AA4F-AE0FA0D3B811}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{93AF3893-D7BF-4B3C-A727-FA983C9F8165}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{7C4472F9-7C19-4187-9AD3-0410350E7050}"/>
@@ -1735,11 +1933,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{093E187F-6846-4F8A-8FEA-03CAB7771C17}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BA606AC-CED7-485E-9F90-A7A3D9D824A2}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2:E9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1769,282 +1967,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>11</v>
+      <c r="L1" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="24" customHeight="1">
-      <c r="A2" s="29">
+      <c r="A2" s="27">
         <v>145011</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="27">
+        <v>99070</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="66" customHeight="1">
+      <c r="A3" s="74">
+        <v>1000347</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="77">
+        <v>450000</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="8">
+        <v>50</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1050</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="38.25" customHeight="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="85"/>
+    </row>
+    <row r="5" spans="1:46" ht="78.75" customHeight="1">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>300</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="85"/>
+    </row>
+    <row r="6" spans="1:46" ht="84.75" customHeight="1">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="29">
-        <v>99070</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" ht="66" customHeight="1">
-      <c r="A3" s="77">
-        <v>1000347</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="80">
-        <v>450000</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="F6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="85"/>
+    </row>
+    <row r="7" spans="1:46" ht="90.75" customHeight="1">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="86"/>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="A8" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="81">
+        <v>2000000</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="79">
+        <v>0</v>
+      </c>
+      <c r="H8" s="79">
+        <v>400</v>
+      </c>
+      <c r="I8" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="87"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10">
-        <v>50</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1050</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" ht="38.25" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="69"/>
-    </row>
-    <row r="5" spans="1:46" ht="78.75" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>300</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="69"/>
-    </row>
-    <row r="6" spans="1:46" ht="84.75" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="69"/>
-    </row>
-    <row r="7" spans="1:46" ht="90.75" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1500</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="70"/>
-    </row>
-    <row r="8" spans="1:46">
-      <c r="A8" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="83">
-        <v>2000000</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="67">
-        <v>0</v>
-      </c>
-      <c r="H8" s="67">
-        <v>400</v>
-      </c>
-      <c r="I8" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="81"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="81"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="81"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-    </row>
-    <row r="12" spans="1:46" s="39" customFormat="1" ht="169.5" customHeight="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+    </row>
+    <row r="12" spans="1:46" s="37" customFormat="1" ht="169.5" customHeight="1">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -2081,49 +2279,41 @@
       <c r="AT12"/>
     </row>
     <row r="13" spans="1:46" ht="207" customHeight="1">
-      <c r="A13" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="A13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="21">
         <v>0</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="21">
         <v>50</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32" t="s">
-        <v>20</v>
+      <c r="I13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="L3:L7"/>
     <mergeCell ref="F8:F12"/>
@@ -2133,6 +2323,14 @@
     <mergeCell ref="J8:J12"/>
     <mergeCell ref="K8:K12"/>
     <mergeCell ref="L8:L12"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{F083568D-3160-451B-BC98-5D06DE95C647}"/>
@@ -2146,7 +2344,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A8E329A-A5F3-447D-8638-AF9EE6602F38}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
@@ -2205,21 +2403,21 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>145011</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9">
         <v>99070</v>
       </c>
       <c r="E2" s="2"/>
@@ -2229,238 +2427,233 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="66" customHeight="1">
-      <c r="A3" s="92">
+      <c r="A3" s="93">
         <v>1000347</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="99">
+      <c r="B3" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="100">
         <v>450000</v>
       </c>
-      <c r="E3" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="E3" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="7">
         <v>10</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>200</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="72.75">
+      <c r="A4" s="94"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8">
+        <v>50</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1050</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A5" s="94"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>70</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="78.75" customHeight="1">
+      <c r="A6" s="94"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>300</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="84.75" customHeight="1">
+      <c r="A7" s="94"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90.75" customHeight="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="110">
+        <v>2000000</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="105">
+        <v>0</v>
+      </c>
+      <c r="H9" s="105">
+        <v>400</v>
+      </c>
+      <c r="I9" s="105" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="107"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="107"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="107"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+    </row>
+    <row r="13" spans="1:10" ht="169.5" customHeight="1">
+      <c r="A13" s="84"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+    </row>
+    <row r="14" spans="1:10" ht="207" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="72.75">
-      <c r="A4" s="93"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="C14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="21">
         <v>50</v>
       </c>
-      <c r="H4" s="10">
-        <v>1050</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A5" s="93"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>70</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="78.75" customHeight="1">
-      <c r="A6" s="93"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>300</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="84.75" customHeight="1">
-      <c r="A7" s="93"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="90.75" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1500</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="90">
-        <v>2000000</v>
-      </c>
-      <c r="E9" s="91" t="s">
+      <c r="I14" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="85">
-        <v>0</v>
-      </c>
-      <c r="H9" s="85">
-        <v>400</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="87"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="87"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="87"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-    </row>
-    <row r="13" spans="1:10" ht="169.5" customHeight="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-    </row>
-    <row r="14" spans="1:10" ht="207" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="23">
-        <v>50</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="E3:E8"/>
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="A9:A13"/>
@@ -2470,6 +2663,11 @@
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="E9:E13"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2483,7 +2681,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
@@ -2495,195 +2693,205 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="104"/>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="104"/>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="105"/>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="105"/>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="105"/>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B1" s="67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="114" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="105"/>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B2" s="68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="106" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="114" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="114" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="106"/>
-      <c r="B11" t="s">
+      <c r="B5" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="114" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="107" t="s">
+      <c r="B6" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="114" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="107"/>
-      <c r="B13" t="s">
+      <c r="B7" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="68" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="107"/>
-      <c r="B14" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B9" s="68" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B10" s="115" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B11" s="115" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="115" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="115" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="115" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="116" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="115" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2936,16 +3144,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A9E7B7-546E-484B-85A4-3821C95354BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D4F767-6D43-4390-BAB1-24FFF1EDB554}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2953,5 +3163,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D4F767-6D43-4390-BAB1-24FFF1EDB554}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A9E7B7-546E-484B-85A4-3821C95354BD}"/>
 </file>